--- a/results/basic_metrics_runtimes/TPE_tuning_150_50_trees/tuning_times_12_datasets_TPE_150_50_trees.xlsx
+++ b/results/basic_metrics_runtimes/TPE_tuning_150_50_trees/tuning_times_12_datasets_TPE_150_50_trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p\Documents\M\2 stopień\masters thesis\boost\results\basic_metrics_runtimes\TPE_tuning_150_50_trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CEA328-AD94-48EF-B277-42C18634B0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB968858-5453-4375-ACC7-D250EB231B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,12 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -459,16 +458,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>439.05559301376343</v>
+        <v>422.99361062049871</v>
       </c>
       <c r="B2">
-        <v>780.33489489555359</v>
+        <v>1167.1050772666929</v>
       </c>
       <c r="C2">
-        <v>107.6524817943573</v>
+        <v>106.89730668067931</v>
       </c>
       <c r="D2">
-        <v>548.34480619430542</v>
+        <v>527.38269352912903</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -476,16 +475,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>26.743536949157711</v>
+        <v>26.143944025039669</v>
       </c>
       <c r="B3">
-        <v>148.82645273208621</v>
+        <v>452.81845545768738</v>
       </c>
       <c r="C3">
-        <v>14.87257504463196</v>
+        <v>14.689358711242679</v>
       </c>
       <c r="D3">
-        <v>57.815334320068359</v>
+        <v>55.088619947433472</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -493,16 +492,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>350.54669952392578</v>
+        <v>337.89333248138428</v>
       </c>
       <c r="B4">
-        <v>534.06732702255249</v>
+        <v>870.56675434112549</v>
       </c>
       <c r="C4">
-        <v>103.4548897743225</v>
+        <v>99.246004104614258</v>
       </c>
       <c r="D4">
-        <v>677.34160351753235</v>
+        <v>637.76248741149902</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -510,16 +509,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>88.805833339691162</v>
+        <v>80.430171728134155</v>
       </c>
       <c r="B5">
-        <v>246.50481557846069</v>
+        <v>480.26403498649597</v>
       </c>
       <c r="C5">
-        <v>49.918550252914429</v>
+        <v>48.461355924606323</v>
       </c>
       <c r="D5">
-        <v>121.396874666214</v>
+        <v>113.8541820049286</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -527,16 +526,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>50.496670007705688</v>
+        <v>48.260196924209588</v>
       </c>
       <c r="B6">
-        <v>152.1319782733917</v>
+        <v>384.91414165496832</v>
       </c>
       <c r="C6">
-        <v>15.52077221870422</v>
+        <v>15.31342434883118</v>
       </c>
       <c r="D6">
-        <v>1710.6879854202271</v>
+        <v>1685.406959533691</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -544,16 +543,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>124.52540731430049</v>
+        <v>116.8032686710358</v>
       </c>
       <c r="B7">
-        <v>310.8978316783905</v>
+        <v>697.29553961753845</v>
       </c>
       <c r="C7">
-        <v>56.529876470565803</v>
+        <v>56.120332479476929</v>
       </c>
       <c r="D7">
-        <v>104.36763429641719</v>
+        <v>99.909819364547729</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -561,16 +560,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2013.2106394767759</v>
+        <v>2001.4262361526489</v>
       </c>
       <c r="B8">
-        <v>788.95454525947571</v>
+        <v>900.11027455329895</v>
       </c>
       <c r="C8">
-        <v>68.607234954833984</v>
+        <v>66.310784816741943</v>
       </c>
       <c r="D8">
-        <v>1893.3942437171941</v>
+        <v>1708.473667621613</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -578,16 +577,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>454.13626885414118</v>
+        <v>444.96363496780401</v>
       </c>
       <c r="B9">
-        <v>826.19762134552002</v>
+        <v>822.1752917766571</v>
       </c>
       <c r="C9">
-        <v>81.401860475540161</v>
+        <v>81.83507251739502</v>
       </c>
       <c r="D9">
-        <v>8597.2815730571747</v>
+        <v>7861.6777367591858</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -595,16 +594,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>112.9378488063812</v>
+        <v>113.13900852203371</v>
       </c>
       <c r="B10">
-        <v>443.1743803024292</v>
+        <v>488.70281982421881</v>
       </c>
       <c r="C10">
-        <v>34.955244779586792</v>
+        <v>33.191932916641242</v>
       </c>
       <c r="D10">
-        <v>3264.1284878253941</v>
+        <v>3112.2439227104192</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -612,16 +611,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>264.6778769493103</v>
+        <v>258.34844613075262</v>
       </c>
       <c r="B11">
-        <v>471.75281500816351</v>
+        <v>583.76041150093079</v>
       </c>
       <c r="C11">
-        <v>135.7682158946991</v>
+        <v>118.5075278282166</v>
       </c>
       <c r="D11">
-        <v>1283.1523492336271</v>
+        <v>1219.428186655045</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -629,35 +628,35 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2417.3505637645721</v>
+        <v>2323.9030058383942</v>
       </c>
       <c r="B12">
-        <v>2252.4976358413701</v>
+        <v>2421.3472683429718</v>
       </c>
       <c r="C12">
-        <v>1458.300005912781</v>
+        <v>1169.3939740657811</v>
       </c>
       <c r="D12">
-        <v>14821.151455402371</v>
+        <v>13507.267176151279</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>668.69633412361145</v>
-      </c>
-      <c r="B13" s="2">
-        <v>759.06958293914795</v>
-      </c>
-      <c r="C13" s="2">
-        <v>658.80283427238464</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7423.2165009975433</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="A13">
+        <v>672.82793235778809</v>
+      </c>
+      <c r="B13">
+        <v>825.22512316703796</v>
+      </c>
+      <c r="C13">
+        <v>648.71337890625</v>
+      </c>
+      <c r="D13">
+        <v>7525.5196301937103</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
     </row>
